--- a/raw_data/rdm.gradient.2019.datasheet.xlsx
+++ b/raw_data/rdm.gradient.2019.datasheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School\RDM 2019\rdm.gradient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\RDM 2019\rdm.gradient\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -654,8 +654,8 @@
   <dimension ref="A1:V635"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A596" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M610" sqref="M610"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F457" sqref="F457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21029,7 +21029,7 @@
         <v>445</v>
       </c>
       <c r="H457">
-        <v>485</v>
+        <v>185</v>
       </c>
       <c r="I457">
         <v>1</v>
@@ -28025,7 +28025,7 @@
         <v>75</v>
       </c>
       <c r="R610" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S610" t="s">
         <v>95</v>
@@ -28069,7 +28069,7 @@
         <v>100</v>
       </c>
       <c r="R611" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S611" t="s">
         <v>95</v>

--- a/raw_data/rdm.gradient.2019.datasheet.xlsx
+++ b/raw_data/rdm.gradient.2019.datasheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\RDM 2019\rdm.gradient\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\RDM 2019\rdm.gradient\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:V635"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F457" sqref="F457"/>
     </sheetView>
   </sheetViews>
